--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/startconfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work-unity\MET\Unity\Assets\Config\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work-unity\MET\Unity\Assets\Config\Excel\StartConfig\Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="@StartMachine" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,34 @@
   </si>
   <si>
     <t>mongodb://127.0.0.1</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,6 +200,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +323,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,22 +343,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +648,9 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -643,7 +665,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -658,7 +682,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,18 +698,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -696,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,8 +749,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -727,8 +763,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -739,7 +777,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -750,26 +790,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>20002</v>
       </c>
     </row>
@@ -782,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,8 +852,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -825,8 +875,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -846,7 +898,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -866,50 +920,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>30001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -921,15 +963,15 @@
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>30003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -938,15 +980,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -955,15 +1000,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -975,23 +1020,40 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1004,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,61 +1084,75 @@
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
